--- a/LCMS_IS-quantification/AA_quant_standard-curve/cal-curve_LCMS-data_runs/AA_quant_april_22.xlsx
+++ b/LCMS_IS-quantification/AA_quant_standard-curve/cal-curve_LCMS-data_runs/AA_quant_april_22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/LCMS_IS-quantification/AA_quant_standard-curve/cal-curve_runs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/LCMS_IS-quantification/AA_quant_standard-curve/cal-curve_LCMS-data_runs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A7AEE-A85C-1244-9FB8-54EFD56C83AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A89F86-8579-F647-A226-ED4FB56DA13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alanine pos" sheetId="1" r:id="rId1"/>
@@ -7537,7 +7537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -31139,7 +31139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
